--- a/data/gdp.xlsx
+++ b/data/gdp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC62457-EE12-489B-9D35-F6C0D5253876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5D7988-97B4-4C39-933A-F8C91752B093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -412,11 +412,11 @@
         <v>45473</v>
       </c>
       <c r="B3" s="2">
-        <v>2.0529999999999999</v>
+        <v>3.0529999999999999</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C47" si="0">(B3/B7-1)*100</f>
-        <v>-29.304407713498627</v>
+        <f t="shared" ref="C3:C46" si="0">(B3/B7-1)*100</f>
+        <v>5.1308539944903586</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
